--- a/data/market_cargoes.xlsx
+++ b/data/market_cargoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Y3S2\SMU\cargill_datathon_freight_calculator_chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B0C3D-F52D-4CE1-A786-801BE2955ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2923930-D035-45C8-81BB-012EF4443A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
-  <si>
-    <t>Discharge Terms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Port Cost</t>
   </si>
@@ -50,9 +47,6 @@
     <t>Iron Ore</t>
   </si>
   <si>
-    <t>30,000 MT PWWD SHINC+ 24 hr turn time</t>
-  </si>
-  <si>
     <t>USD 240K total (load &amp; discharge)</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Anglo American</t>
   </si>
   <si>
-    <t>25,000 MT PWWD SHINC+ 24 hr turn time</t>
-  </si>
-  <si>
     <t>USD 180K total</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
   </si>
   <si>
     <t>Bauxite</t>
-  </si>
-  <si>
-    <t>25,000 MT PWWD SHINC+ 12 hr turn time</t>
   </si>
   <si>
     <t>USD 150K total</t>
@@ -319,7 +307,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-13809]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -361,8 +349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -648,132 +636,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="47.21875" customWidth="1"/>
     <col min="11" max="11" width="47.21875" style="2" customWidth="1"/>
-    <col min="12" max="25" width="47.21875" customWidth="1"/>
-    <col min="26" max="26" width="21.33203125" customWidth="1"/>
+    <col min="12" max="24" width="47.21875" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>170000</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*(1-H2)</f>
+        <f t="shared" ref="F2:F9" si="0">E2*(1-H2)</f>
         <v>153000</v>
       </c>
       <c r="G2" s="1">
-        <f>E2*(1+H2)</f>
+        <f t="shared" ref="G2:G9" si="1">E2*(1+H2)</f>
         <v>187000.00000000003</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2">
@@ -784,68 +769,65 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>240000</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1">
-        <v>240000</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>190000</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*(1-H3)</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
       <c r="G3" s="1">
-        <f>E3*(1+H3)</f>
+        <f t="shared" si="1"/>
         <v>209000.00000000003</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2">
@@ -856,73 +838,70 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>75000</v>
       </c>
       <c r="W3" s="1">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="X3" s="1">
-        <v>95000</v>
-      </c>
-      <c r="Y3" s="1">
-        <f>W3+X3</f>
+        <f>V3+W3</f>
         <v>170000</v>
       </c>
-      <c r="AA3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>180000</v>
       </c>
       <c r="F4" s="1">
-        <f>E4*(1-H4)</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="G4" s="1">
-        <f>E4*(1+H4)</f>
+        <f t="shared" si="1"/>
         <v>198000.00000000003</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2">
@@ -933,68 +912,65 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>180000</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1">
-        <v>180000</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E5">
         <v>150000</v>
       </c>
       <c r="F5" s="1">
-        <f>E5*(1-H5)</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
       <c r="G5" s="1">
-        <f>E5*(1+H5)</f>
+        <f t="shared" si="1"/>
         <v>165000</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
@@ -1005,68 +981,65 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1">
+      <c r="X5" s="1">
         <v>90000</v>
       </c>
-      <c r="Z5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>160000</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*(1-H6)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="G6" s="1">
-        <f>E6*(1+H6)</f>
+        <f t="shared" si="1"/>
         <v>176000</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2">
@@ -1077,76 +1050,73 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="V6" s="1">
+        <v>180000</v>
       </c>
       <c r="W6" s="1">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="X6" s="1">
-        <v>110000</v>
-      </c>
-      <c r="Y6" s="1">
-        <f>W6+X6</f>
+        <f>V6+W6</f>
         <v>290000</v>
       </c>
-      <c r="AA6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>175000</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*(1-H7)</f>
+        <f t="shared" si="0"/>
         <v>157500</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*(1+H7)</f>
+        <f t="shared" si="1"/>
         <v>192500.00000000003</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2">
         <v>46122</v>
@@ -1156,68 +1126,65 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P7" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
+      <c r="X7" s="1">
         <v>150000</v>
       </c>
-      <c r="Z7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>165000</v>
       </c>
       <c r="F8" s="1">
-        <f>E8*(1-H8)</f>
+        <f t="shared" si="0"/>
         <v>148500</v>
       </c>
       <c r="G8" s="1">
-        <f>E8*(1+H8)</f>
+        <f t="shared" si="1"/>
         <v>181500.00000000003</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2">
@@ -1228,68 +1195,65 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1">
+      <c r="X8" s="1">
         <v>230000</v>
       </c>
-      <c r="AA8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>180000</v>
       </c>
       <c r="F9" s="1">
-        <f>E9*(1-H9)</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="G9" s="1">
-        <f>E9*(1+H9)</f>
+        <f t="shared" si="1"/>
         <v>198000.00000000003</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2">
@@ -1300,51 +1264,48 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="V9" s="1">
+        <v>85000</v>
       </c>
       <c r="W9" s="1">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="X9" s="1">
-        <v>80000</v>
-      </c>
-      <c r="Y9" s="1">
-        <f>W9+X9</f>
+        <f>V9+W9</f>
         <v>165000</v>
       </c>
-      <c r="AA9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">

--- a/data/market_cargoes.xlsx
+++ b/data/market_cargoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Y3S2\SMU\cargill_datathon_freight_calculator_chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2923930-D035-45C8-81BB-012EF4443A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26FD44-3D7D-4A9F-8730-6080CFAE5BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
-  <si>
-    <t>Port Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Rio Tinto</t>
   </si>
@@ -47,58 +44,34 @@
     <t>Iron Ore</t>
   </si>
   <si>
-    <t>USD 240K total (load &amp; discharge)</t>
-  </si>
-  <si>
     <t>Vale</t>
   </si>
   <si>
-    <t>USD 75K load / USD 95K discharge</t>
-  </si>
-  <si>
     <t>Anglo American</t>
   </si>
   <si>
-    <t>USD 180K total</t>
-  </si>
-  <si>
     <t>Adaro</t>
   </si>
   <si>
     <t>Thermal Coal</t>
   </si>
   <si>
-    <t>USD 90K total</t>
-  </si>
-  <si>
     <t>Teck Resources</t>
   </si>
   <si>
     <t>Coking Coal</t>
   </si>
   <si>
-    <t>USD 180K at load / USD 110K at discharge</t>
-  </si>
-  <si>
     <t>Guinea Alumina Corp</t>
   </si>
   <si>
     <t>Bauxite</t>
   </si>
   <si>
-    <t>USD 150K total</t>
-  </si>
-  <si>
     <t>BHP</t>
   </si>
   <si>
-    <t>USD 230K total</t>
-  </si>
-  <si>
     <t>Vale Malaysia</t>
-  </si>
-  <si>
-    <t>USD 85K load / USD 80K discharge</t>
   </si>
   <si>
     <t xml:space="preserve">China </t>
@@ -636,112 +609,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="47.21875" customWidth="1"/>
     <col min="11" max="11" width="47.21875" style="2" customWidth="1"/>
-    <col min="12" max="24" width="47.21875" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
+    <col min="12" max="23" width="47.21875" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E2">
         <v>170000</v>
@@ -755,10 +725,10 @@
         <v>187000.00000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2">
@@ -769,48 +739,45 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1">
+      <c r="W2" s="1">
         <v>240000</v>
       </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>190000</v>
@@ -824,10 +791,10 @@
         <v>209000.00000000003</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2">
@@ -838,53 +805,50 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="U3" s="1">
+        <v>75000</v>
       </c>
       <c r="V3" s="1">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="W3" s="1">
-        <v>95000</v>
-      </c>
-      <c r="X3" s="1">
-        <f>V3+W3</f>
+        <f>U3+V3</f>
         <v>170000</v>
       </c>
-      <c r="Z3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>180000</v>
@@ -898,10 +862,10 @@
         <v>198000.00000000003</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2">
@@ -912,48 +876,45 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1">
+      <c r="W4" s="1">
         <v>180000</v>
       </c>
-      <c r="Z4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>150000</v>
@@ -967,10 +928,10 @@
         <v>165000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
@@ -981,48 +942,45 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>90000</v>
+      </c>
+      <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1">
-        <v>90000</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>160000</v>
@@ -1036,10 +994,10 @@
         <v>176000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2">
@@ -1050,53 +1008,50 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="1">
+        <v>180000</v>
+      </c>
+      <c r="V6" s="1">
+        <v>110000</v>
+      </c>
+      <c r="W6" s="1">
+        <f>U6+V6</f>
+        <v>290000</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="1">
-        <v>180000</v>
-      </c>
-      <c r="W6" s="1">
-        <v>110000</v>
-      </c>
-      <c r="X6" s="1">
-        <f>V6+W6</f>
-        <v>290000</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>175000</v>
@@ -1110,13 +1065,13 @@
         <v>192500.00000000003</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2">
         <v>46122</v>
@@ -1126,48 +1081,45 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="P7" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <v>150000</v>
+      </c>
+      <c r="X7" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1">
-        <v>150000</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>165000</v>
@@ -1181,10 +1133,10 @@
         <v>181500.00000000003</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2">
@@ -1195,48 +1147,45 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1">
+      <c r="W8" s="1">
         <v>230000</v>
       </c>
-      <c r="Z8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>180000</v>
@@ -1250,10 +1199,10 @@
         <v>198000.00000000003</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2">
@@ -1264,48 +1213,45 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="U9" s="1">
+        <v>85000</v>
       </c>
       <c r="V9" s="1">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="W9" s="1">
-        <v>80000</v>
-      </c>
-      <c r="X9" s="1">
-        <f>V9+W9</f>
+        <f>U9+V9</f>
         <v>165000</v>
       </c>
-      <c r="Z9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">

--- a/data/market_cargoes.xlsx
+++ b/data/market_cargoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Y3S2\SMU\cargill_datathon_freight_calculator_chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26FD44-3D7D-4A9F-8730-6080CFAE5BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79714C8D-BBAD-423E-8B56-87042BDB092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,8 +1086,8 @@
       <c r="O7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="4" t="e">
-        <v>#N/A</v>
+      <c r="P7" s="4">
+        <v>9</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>64</v>
